--- a/eclipse-workspace/utkarsh/Vacant Beds Tracker_Delhi.xlsx
+++ b/eclipse-workspace/utkarsh/Vacant Beds Tracker_Delhi.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Hospital</t>
   </si>
@@ -50,13 +50,13 @@
     <t>Updated On</t>
   </si>
   <si>
-    <t>AIIMS Jhajjar</t>
+    <t>Dr Baba Saheb Ambedkar Hospital</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>9582222521</t>
+    <t>01127049963</t>
   </si>
   <si>
     <t>0</t>
@@ -65,7 +65,7 @@
     <t xml:space="preserve"> 0</t>
   </si>
   <si>
-    <t xml:space="preserve"> | V | Vinod Kumar SinghMonday | Number is switched off</t>
+    <t/>
   </si>
   <si>
     <t xml:space="preserve"> -</t>
@@ -74,25 +74,19 @@
     <t>TB</t>
   </si>
   <si>
-    <t>30-04 02:11:18</t>
-  </si>
-  <si>
-    <t>GTB Hospital</t>
-  </si>
-  <si>
-    <t>8595948014</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> | M | MeenuWednesday | I need a bed for my brother he is 39 years old .living in Wazirabad village .. kindly update. his oxygen level is getting down.lateat saturation is 75 ..plz help ..alteast arrange a single .so I can save brother's life..plz help | 7835994706- 8851337300 | N | neha kumar Tuesday | ANY VENTILATOR BED AVAILABLE ? | NEED A ICU BED | IMMEDIATELY | OXYGEN LEVEL 58 | CRITICAL POSITION | CONTACT NO. 7835801416 | WE BELONG TO POOR FAMILY AND NO ONE HELPING US | N | Number switched off - 25th april 2021 11:53Monday | Phn number not answered. 26-04-21 00:01</t>
-  </si>
-  <si>
-    <t>30-04 02:11:21</t>
-  </si>
-  <si>
-    <t>30-04 02:17:41</t>
-  </si>
-  <si>
-    <t>30-04 02:17:44</t>
+    <t>30-04 02:52:33</t>
+  </si>
+  <si>
+    <t>Ambedkar Nagar hospital</t>
+  </si>
+  <si>
+    <t>01126052016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | N | neha kumar Tuesday | ANY VENTILATOR BED AVAILABLE ? | NEED A ICU BED | IMMEDIATELY | OXYGEN LEVEL 58 | CRITICAL POSITION | CONTACT NO. 7835801416 | WE BELONG TO POOR FAMILY AND NO ONE HELPING US | A | Ankush Sunday | Number is switched off</t>
+  </si>
+  <si>
+    <t>30-04 02:52:37</t>
   </si>
 </sst>
 </file>
@@ -277,82 +271,6 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" t="s">
-        <v>26</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
